--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.69939925575485</v>
+        <v>76.08252666666667</v>
       </c>
       <c r="H2">
-        <v>4.69939925575485</v>
+        <v>228.24758</v>
       </c>
       <c r="I2">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="J2">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.97531494384347</v>
+        <v>2.991953333333333</v>
       </c>
       <c r="N2">
-        <v>2.97531494384347</v>
+        <v>8.975860000000001</v>
       </c>
       <c r="O2">
-        <v>0.31154946655865</v>
+        <v>0.3033492052285701</v>
       </c>
       <c r="P2">
-        <v>0.31154946655865</v>
+        <v>0.3033492052285701</v>
       </c>
       <c r="Q2">
-        <v>13.98219283273429</v>
+        <v>227.6353692687556</v>
       </c>
       <c r="R2">
-        <v>13.98219283273429</v>
+        <v>2048.7183234188</v>
       </c>
       <c r="S2">
-        <v>0.1924300818302996</v>
+        <v>0.2908456054291093</v>
       </c>
       <c r="T2">
-        <v>0.1924300818302996</v>
+        <v>0.2908456054291093</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.69939925575485</v>
+        <v>76.08252666666667</v>
       </c>
       <c r="H3">
-        <v>4.69939925575485</v>
+        <v>228.24758</v>
       </c>
       <c r="I3">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="J3">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.94173719255529</v>
+        <v>4.959157333333334</v>
       </c>
       <c r="N3">
-        <v>4.94173719255529</v>
+        <v>14.877472</v>
       </c>
       <c r="O3">
-        <v>0.5174563416889282</v>
+        <v>0.5028007686183057</v>
       </c>
       <c r="P3">
-        <v>0.5174563416889282</v>
+        <v>0.5028007686183057</v>
       </c>
       <c r="Q3">
-        <v>23.22319608483039</v>
+        <v>377.3052200575289</v>
       </c>
       <c r="R3">
-        <v>23.22319608483039</v>
+        <v>3395.74698051776</v>
       </c>
       <c r="S3">
-        <v>0.3196094901868909</v>
+        <v>0.4820760741694525</v>
       </c>
       <c r="T3">
-        <v>0.3196094901868909</v>
+        <v>0.4820760741694525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.69939925575485</v>
+        <v>76.08252666666667</v>
       </c>
       <c r="H4">
-        <v>4.69939925575485</v>
+        <v>228.24758</v>
       </c>
       <c r="I4">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="J4">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.63300415709632</v>
+        <v>1.911955666666667</v>
       </c>
       <c r="N4">
-        <v>1.63300415709632</v>
+        <v>5.735867</v>
       </c>
       <c r="O4">
-        <v>0.1709941917524218</v>
+        <v>0.1938500261531243</v>
       </c>
       <c r="P4">
-        <v>0.1709941917524218</v>
+        <v>0.1938500261531243</v>
       </c>
       <c r="Q4">
-        <v>7.674138520503022</v>
+        <v>145.4664179946511</v>
       </c>
       <c r="R4">
-        <v>7.674138520503022</v>
+        <v>1309.19776195186</v>
       </c>
       <c r="S4">
-        <v>0.1056154153460254</v>
+        <v>0.1858598184770984</v>
       </c>
       <c r="T4">
-        <v>0.1056154153460254</v>
+        <v>0.1858598184770984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.860567322046172</v>
+        <v>0.9347409999999999</v>
       </c>
       <c r="H5">
-        <v>0.860567322046172</v>
+        <v>2.804223</v>
       </c>
       <c r="I5">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="J5">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.97531494384347</v>
+        <v>2.991953333333333</v>
       </c>
       <c r="N5">
-        <v>2.97531494384347</v>
+        <v>8.975860000000001</v>
       </c>
       <c r="O5">
-        <v>0.31154946655865</v>
+        <v>0.3033492052285701</v>
       </c>
       <c r="P5">
-        <v>0.31154946655865</v>
+        <v>0.3033492052285701</v>
       </c>
       <c r="Q5">
-        <v>2.560458813467332</v>
+        <v>2.796701450753333</v>
       </c>
       <c r="R5">
-        <v>2.560458813467332</v>
+        <v>25.17031305678</v>
       </c>
       <c r="S5">
-        <v>0.03523834243260675</v>
+        <v>0.003573294999198823</v>
       </c>
       <c r="T5">
-        <v>0.03523834243260675</v>
+        <v>0.003573294999198822</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.860567322046172</v>
+        <v>0.9347409999999999</v>
       </c>
       <c r="H6">
-        <v>0.860567322046172</v>
+        <v>2.804223</v>
       </c>
       <c r="I6">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="J6">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.94173719255529</v>
+        <v>4.959157333333334</v>
       </c>
       <c r="N6">
-        <v>4.94173719255529</v>
+        <v>14.877472</v>
       </c>
       <c r="O6">
-        <v>0.5174563416889282</v>
+        <v>0.5028007686183057</v>
       </c>
       <c r="P6">
-        <v>0.5174563416889282</v>
+        <v>0.5028007686183057</v>
       </c>
       <c r="Q6">
-        <v>4.252697542053274</v>
+        <v>4.635527684917333</v>
       </c>
       <c r="R6">
-        <v>4.252697542053274</v>
+        <v>41.719749164256</v>
       </c>
       <c r="S6">
-        <v>0.05852779644841973</v>
+        <v>0.005922730111467926</v>
       </c>
       <c r="T6">
-        <v>0.05852779644841973</v>
+        <v>0.005922730111467926</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.860567322046172</v>
+        <v>0.9347409999999999</v>
       </c>
       <c r="H7">
-        <v>0.860567322046172</v>
+        <v>2.804223</v>
       </c>
       <c r="I7">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="J7">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.63300415709632</v>
+        <v>1.911955666666667</v>
       </c>
       <c r="N7">
-        <v>1.63300415709632</v>
+        <v>5.735867</v>
       </c>
       <c r="O7">
-        <v>0.1709941917524218</v>
+        <v>0.1938500261531243</v>
       </c>
       <c r="P7">
-        <v>0.1709941917524218</v>
+        <v>0.1938500261531243</v>
       </c>
       <c r="Q7">
-        <v>1.405310014362647</v>
+        <v>1.787183351815667</v>
       </c>
       <c r="R7">
-        <v>1.405310014362647</v>
+        <v>16.084650166341</v>
       </c>
       <c r="S7">
-        <v>0.01934059444722026</v>
+        <v>0.002283451932981302</v>
       </c>
       <c r="T7">
-        <v>0.01934059444722026</v>
+        <v>0.002283451932981302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.04848693087491</v>
+        <v>2.336085333333334</v>
       </c>
       <c r="H8">
-        <v>2.04848693087491</v>
+        <v>7.008256</v>
       </c>
       <c r="I8">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="J8">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.97531494384347</v>
+        <v>2.991953333333333</v>
       </c>
       <c r="N8">
-        <v>2.97531494384347</v>
+        <v>8.975860000000001</v>
       </c>
       <c r="O8">
-        <v>0.31154946655865</v>
+        <v>0.3033492052285701</v>
       </c>
       <c r="P8">
-        <v>0.31154946655865</v>
+        <v>0.3033492052285701</v>
       </c>
       <c r="Q8">
-        <v>6.094893777700165</v>
+        <v>6.989458300017779</v>
       </c>
       <c r="R8">
-        <v>6.094893777700165</v>
+        <v>62.90512470016001</v>
       </c>
       <c r="S8">
-        <v>0.08388104229574356</v>
+        <v>0.008930304800262013</v>
       </c>
       <c r="T8">
-        <v>0.08388104229574356</v>
+        <v>0.008930304800262011</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.04848693087491</v>
+        <v>2.336085333333334</v>
       </c>
       <c r="H9">
-        <v>2.04848693087491</v>
+        <v>7.008256</v>
       </c>
       <c r="I9">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="J9">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.94173719255529</v>
+        <v>4.959157333333334</v>
       </c>
       <c r="N9">
-        <v>4.94173719255529</v>
+        <v>14.877472</v>
       </c>
       <c r="O9">
-        <v>0.5174563416889282</v>
+        <v>0.5028007686183057</v>
       </c>
       <c r="P9">
-        <v>0.5174563416889282</v>
+        <v>0.5028007686183057</v>
       </c>
       <c r="Q9">
-        <v>10.12308405476798</v>
+        <v>11.58501471209245</v>
       </c>
       <c r="R9">
-        <v>10.12308405476798</v>
+        <v>104.265132408832</v>
       </c>
       <c r="S9">
-        <v>0.1393190550536175</v>
+        <v>0.01480196433738535</v>
       </c>
       <c r="T9">
-        <v>0.1393190550536175</v>
+        <v>0.01480196433738535</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.04848693087491</v>
+        <v>2.336085333333334</v>
       </c>
       <c r="H10">
-        <v>2.04848693087491</v>
+        <v>7.008256</v>
       </c>
       <c r="I10">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="J10">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.63300415709632</v>
+        <v>1.911955666666667</v>
       </c>
       <c r="N10">
-        <v>1.63300415709632</v>
+        <v>5.735867</v>
       </c>
       <c r="O10">
-        <v>0.1709941917524218</v>
+        <v>0.1938500261531243</v>
       </c>
       <c r="P10">
-        <v>0.1709941917524218</v>
+        <v>0.1938500261531243</v>
       </c>
       <c r="Q10">
-        <v>3.34518767387621</v>
+        <v>4.466491590883556</v>
       </c>
       <c r="R10">
-        <v>3.34518767387621</v>
+        <v>40.198424317952</v>
       </c>
       <c r="S10">
-        <v>0.0460381819591761</v>
+        <v>0.005706755743044618</v>
       </c>
       <c r="T10">
-        <v>0.0460381819591761</v>
+        <v>0.005706755743044617</v>
       </c>
     </row>
   </sheetData>
